--- a/data/results/results_summaries.xlsx
+++ b/data/results/results_summaries.xlsx
@@ -17,7 +17,1717 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="760">
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_mean</t>
+  </si>
+  <si>
+    <t>Uebel_mean</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_sd</t>
+  </si>
+  <si>
+    <t>Uebel_sd</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_min</t>
+  </si>
+  <si>
+    <t>Uebel_min</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_max</t>
+  </si>
+  <si>
+    <t>Uebel_max</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_median</t>
+  </si>
+  <si>
+    <t>Uebel_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>SUS_score_mean</t>
+  </si>
+  <si>
+    <t>UMUX_score_mean</t>
+  </si>
+  <si>
+    <t>Trust_mean</t>
+  </si>
+  <si>
+    <t>Acceptance_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_mean</t>
+  </si>
+  <si>
+    <t>SUS_score_sd</t>
+  </si>
+  <si>
+    <t>UMUX_score_sd</t>
+  </si>
+  <si>
+    <t>Trust_sd</t>
+  </si>
+  <si>
+    <t>Acceptance_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_sd</t>
+  </si>
+  <si>
+    <t>SUS_score_min</t>
+  </si>
+  <si>
+    <t>UMUX_score_min</t>
+  </si>
+  <si>
+    <t>Trust_min</t>
+  </si>
+  <si>
+    <t>Acceptance_min</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_min</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_min</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_min</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_min</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_min</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_min</t>
+  </si>
+  <si>
+    <t>SUS_score_max</t>
+  </si>
+  <si>
+    <t>UMUX_score_max</t>
+  </si>
+  <si>
+    <t>Trust_max</t>
+  </si>
+  <si>
+    <t>Acceptance_max</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_max</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_max</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_max</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_max</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_max</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_max</t>
+  </si>
+  <si>
+    <t>SUS_score_median</t>
+  </si>
+  <si>
+    <t>UMUX_score_median</t>
+  </si>
+  <si>
+    <t>Trust_median</t>
+  </si>
+  <si>
+    <t>Acceptance_median</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_median</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_median</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_median</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_median</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_median</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_mean</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_mean</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>TransProblems_score_mean</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_mean</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_mean</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_sd</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_sd</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>TransProblems_score_sd</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_sd</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_sd</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_min</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_min</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>TransProblems_score_min</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_min</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_min</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_max</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_max</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>TransProblems_score_max</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_max</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_max</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_median</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_median</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>TransProblems_score_median</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_median</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>TC01_ER_mean</t>
+  </si>
+  <si>
+    <t>TC02_ER_mean</t>
+  </si>
+  <si>
+    <t>TC03_ER_mean</t>
+  </si>
+  <si>
+    <t>TC04_ER_mean</t>
+  </si>
+  <si>
+    <t>TC05_ER_mean</t>
+  </si>
+  <si>
+    <t>TC06_ER_mean</t>
+  </si>
+  <si>
+    <t>TC07_ER_mean</t>
+  </si>
+  <si>
+    <t>TC08_ER_mean</t>
+  </si>
+  <si>
+    <t>TC09_ER_mean</t>
+  </si>
+  <si>
+    <t>TC10_ER_mean</t>
+  </si>
+  <si>
+    <t>TC11_ER_mean</t>
+  </si>
+  <si>
+    <t>TC12_ER_mean</t>
+  </si>
+  <si>
+    <t>ER_overall_mean</t>
+  </si>
+  <si>
+    <t>TC01_ER_sd</t>
+  </si>
+  <si>
+    <t>TC02_ER_sd</t>
+  </si>
+  <si>
+    <t>TC03_ER_sd</t>
+  </si>
+  <si>
+    <t>TC04_ER_sd</t>
+  </si>
+  <si>
+    <t>TC05_ER_sd</t>
+  </si>
+  <si>
+    <t>TC06_ER_sd</t>
+  </si>
+  <si>
+    <t>TC07_ER_sd</t>
+  </si>
+  <si>
+    <t>TC08_ER_sd</t>
+  </si>
+  <si>
+    <t>TC09_ER_sd</t>
+  </si>
+  <si>
+    <t>TC10_ER_sd</t>
+  </si>
+  <si>
+    <t>TC11_ER_sd</t>
+  </si>
+  <si>
+    <t>TC12_ER_sd</t>
+  </si>
+  <si>
+    <t>ER_overall_sd</t>
+  </si>
+  <si>
+    <t>TC01_ER_min</t>
+  </si>
+  <si>
+    <t>TC02_ER_min</t>
+  </si>
+  <si>
+    <t>TC03_ER_min</t>
+  </si>
+  <si>
+    <t>TC04_ER_min</t>
+  </si>
+  <si>
+    <t>TC05_ER_min</t>
+  </si>
+  <si>
+    <t>TC06_ER_min</t>
+  </si>
+  <si>
+    <t>TC07_ER_min</t>
+  </si>
+  <si>
+    <t>TC08_ER_min</t>
+  </si>
+  <si>
+    <t>TC09_ER_min</t>
+  </si>
+  <si>
+    <t>TC10_ER_min</t>
+  </si>
+  <si>
+    <t>TC11_ER_min</t>
+  </si>
+  <si>
+    <t>TC12_ER_min</t>
+  </si>
+  <si>
+    <t>ER_overall_min</t>
+  </si>
+  <si>
+    <t>TC01_ER_max</t>
+  </si>
+  <si>
+    <t>TC02_ER_max</t>
+  </si>
+  <si>
+    <t>TC03_ER_max</t>
+  </si>
+  <si>
+    <t>TC04_ER_max</t>
+  </si>
+  <si>
+    <t>TC05_ER_max</t>
+  </si>
+  <si>
+    <t>TC06_ER_max</t>
+  </si>
+  <si>
+    <t>TC07_ER_max</t>
+  </si>
+  <si>
+    <t>TC08_ER_max</t>
+  </si>
+  <si>
+    <t>TC09_ER_max</t>
+  </si>
+  <si>
+    <t>TC10_ER_max</t>
+  </si>
+  <si>
+    <t>TC11_ER_max</t>
+  </si>
+  <si>
+    <t>TC12_ER_max</t>
+  </si>
+  <si>
+    <t>ER_overall_max</t>
+  </si>
+  <si>
+    <t>TC01_ER_median</t>
+  </si>
+  <si>
+    <t>TC02_ER_median</t>
+  </si>
+  <si>
+    <t>TC03_ER_median</t>
+  </si>
+  <si>
+    <t>TC04_ER_median</t>
+  </si>
+  <si>
+    <t>TC05_ER_median</t>
+  </si>
+  <si>
+    <t>TC06_ER_median</t>
+  </si>
+  <si>
+    <t>TC07_ER_median</t>
+  </si>
+  <si>
+    <t>TC08_ER_median</t>
+  </si>
+  <si>
+    <t>TC09_ER_median</t>
+  </si>
+  <si>
+    <t>TC10_ER_median</t>
+  </si>
+  <si>
+    <t>TC11_ER_median</t>
+  </si>
+  <si>
+    <t>TC12_ER_median</t>
+  </si>
+  <si>
+    <t>ER_overall_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_mean</t>
+  </si>
+  <si>
+    <t>Uebel_mean</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_sd</t>
+  </si>
+  <si>
+    <t>Uebel_sd</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_min</t>
+  </si>
+  <si>
+    <t>Uebel_min</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_max</t>
+  </si>
+  <si>
+    <t>Uebel_max</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_median</t>
+  </si>
+  <si>
+    <t>Uebel_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>SUS_score_mean</t>
+  </si>
+  <si>
+    <t>UMUX_score_mean</t>
+  </si>
+  <si>
+    <t>Trust_mean</t>
+  </si>
+  <si>
+    <t>Acceptance_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_mean</t>
+  </si>
+  <si>
+    <t>SUS_score_sd</t>
+  </si>
+  <si>
+    <t>UMUX_score_sd</t>
+  </si>
+  <si>
+    <t>Trust_sd</t>
+  </si>
+  <si>
+    <t>Acceptance_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_sd</t>
+  </si>
+  <si>
+    <t>SUS_score_min</t>
+  </si>
+  <si>
+    <t>UMUX_score_min</t>
+  </si>
+  <si>
+    <t>Trust_min</t>
+  </si>
+  <si>
+    <t>Acceptance_min</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_min</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_min</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_min</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_min</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_min</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_min</t>
+  </si>
+  <si>
+    <t>SUS_score_max</t>
+  </si>
+  <si>
+    <t>UMUX_score_max</t>
+  </si>
+  <si>
+    <t>Trust_max</t>
+  </si>
+  <si>
+    <t>Acceptance_max</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_max</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_max</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_max</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_max</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_max</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_max</t>
+  </si>
+  <si>
+    <t>SUS_score_median</t>
+  </si>
+  <si>
+    <t>UMUX_score_median</t>
+  </si>
+  <si>
+    <t>Trust_median</t>
+  </si>
+  <si>
+    <t>Acceptance_median</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_median</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_median</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_median</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_median</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_median</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_mean</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_mean</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>TransProblems_score_mean</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_mean</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_mean</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_sd</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_sd</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>TransProblems_score_sd</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_sd</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_sd</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_min</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_min</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>TransProblems_score_min</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_min</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_min</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_max</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_max</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>TransProblems_score_max</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_max</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_max</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_median</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_median</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>TransProblems_score_median</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_median</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>TC01_ER_mean</t>
+  </si>
+  <si>
+    <t>TC02_ER_mean</t>
+  </si>
+  <si>
+    <t>TC03_ER_mean</t>
+  </si>
+  <si>
+    <t>TC04_ER_mean</t>
+  </si>
+  <si>
+    <t>TC05_ER_mean</t>
+  </si>
+  <si>
+    <t>TC06_ER_mean</t>
+  </si>
+  <si>
+    <t>TC07_ER_mean</t>
+  </si>
+  <si>
+    <t>TC08_ER_mean</t>
+  </si>
+  <si>
+    <t>TC09_ER_mean</t>
+  </si>
+  <si>
+    <t>TC10_ER_mean</t>
+  </si>
+  <si>
+    <t>TC11_ER_mean</t>
+  </si>
+  <si>
+    <t>TC12_ER_mean</t>
+  </si>
+  <si>
+    <t>ER_overall_mean</t>
+  </si>
+  <si>
+    <t>TC01_ER_sd</t>
+  </si>
+  <si>
+    <t>TC02_ER_sd</t>
+  </si>
+  <si>
+    <t>TC03_ER_sd</t>
+  </si>
+  <si>
+    <t>TC04_ER_sd</t>
+  </si>
+  <si>
+    <t>TC05_ER_sd</t>
+  </si>
+  <si>
+    <t>TC06_ER_sd</t>
+  </si>
+  <si>
+    <t>TC07_ER_sd</t>
+  </si>
+  <si>
+    <t>TC08_ER_sd</t>
+  </si>
+  <si>
+    <t>TC09_ER_sd</t>
+  </si>
+  <si>
+    <t>TC10_ER_sd</t>
+  </si>
+  <si>
+    <t>TC11_ER_sd</t>
+  </si>
+  <si>
+    <t>TC12_ER_sd</t>
+  </si>
+  <si>
+    <t>ER_overall_sd</t>
+  </si>
+  <si>
+    <t>TC01_ER_min</t>
+  </si>
+  <si>
+    <t>TC02_ER_min</t>
+  </si>
+  <si>
+    <t>TC03_ER_min</t>
+  </si>
+  <si>
+    <t>TC04_ER_min</t>
+  </si>
+  <si>
+    <t>TC05_ER_min</t>
+  </si>
+  <si>
+    <t>TC06_ER_min</t>
+  </si>
+  <si>
+    <t>TC07_ER_min</t>
+  </si>
+  <si>
+    <t>TC08_ER_min</t>
+  </si>
+  <si>
+    <t>TC09_ER_min</t>
+  </si>
+  <si>
+    <t>TC10_ER_min</t>
+  </si>
+  <si>
+    <t>TC11_ER_min</t>
+  </si>
+  <si>
+    <t>TC12_ER_min</t>
+  </si>
+  <si>
+    <t>ER_overall_min</t>
+  </si>
+  <si>
+    <t>TC01_ER_max</t>
+  </si>
+  <si>
+    <t>TC02_ER_max</t>
+  </si>
+  <si>
+    <t>TC03_ER_max</t>
+  </si>
+  <si>
+    <t>TC04_ER_max</t>
+  </si>
+  <si>
+    <t>TC05_ER_max</t>
+  </si>
+  <si>
+    <t>TC06_ER_max</t>
+  </si>
+  <si>
+    <t>TC07_ER_max</t>
+  </si>
+  <si>
+    <t>TC08_ER_max</t>
+  </si>
+  <si>
+    <t>TC09_ER_max</t>
+  </si>
+  <si>
+    <t>TC10_ER_max</t>
+  </si>
+  <si>
+    <t>TC11_ER_max</t>
+  </si>
+  <si>
+    <t>TC12_ER_max</t>
+  </si>
+  <si>
+    <t>ER_overall_max</t>
+  </si>
+  <si>
+    <t>TC01_ER_median</t>
+  </si>
+  <si>
+    <t>TC02_ER_median</t>
+  </si>
+  <si>
+    <t>TC03_ER_median</t>
+  </si>
+  <si>
+    <t>TC04_ER_median</t>
+  </si>
+  <si>
+    <t>TC05_ER_median</t>
+  </si>
+  <si>
+    <t>TC06_ER_median</t>
+  </si>
+  <si>
+    <t>TC07_ER_median</t>
+  </si>
+  <si>
+    <t>TC08_ER_median</t>
+  </si>
+  <si>
+    <t>TC09_ER_median</t>
+  </si>
+  <si>
+    <t>TC10_ER_median</t>
+  </si>
+  <si>
+    <t>TC11_ER_median</t>
+  </si>
+  <si>
+    <t>TC12_ER_median</t>
+  </si>
+  <si>
+    <t>ER_overall_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_mean</t>
+  </si>
+  <si>
+    <t>Uebel_mean</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_sd</t>
+  </si>
+  <si>
+    <t>Uebel_sd</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_min</t>
+  </si>
+  <si>
+    <t>Uebel_min</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_max</t>
+  </si>
+  <si>
+    <t>Uebel_max</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_median</t>
+  </si>
+  <si>
+    <t>Uebel_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>SUS_score_mean</t>
+  </si>
+  <si>
+    <t>UMUX_score_mean</t>
+  </si>
+  <si>
+    <t>Trust_mean</t>
+  </si>
+  <si>
+    <t>Acceptance_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_mean</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_mean</t>
+  </si>
+  <si>
+    <t>SUS_score_sd</t>
+  </si>
+  <si>
+    <t>UMUX_score_sd</t>
+  </si>
+  <si>
+    <t>Trust_sd</t>
+  </si>
+  <si>
+    <t>Acceptance_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_sd</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_sd</t>
+  </si>
+  <si>
+    <t>SUS_score_min</t>
+  </si>
+  <si>
+    <t>UMUX_score_min</t>
+  </si>
+  <si>
+    <t>Trust_min</t>
+  </si>
+  <si>
+    <t>Acceptance_min</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_min</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_min</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_min</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_min</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_min</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_min</t>
+  </si>
+  <si>
+    <t>SUS_score_max</t>
+  </si>
+  <si>
+    <t>UMUX_score_max</t>
+  </si>
+  <si>
+    <t>Trust_max</t>
+  </si>
+  <si>
+    <t>Acceptance_max</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_max</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_max</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_max</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_max</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_max</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_max</t>
+  </si>
+  <si>
+    <t>SUS_score_median</t>
+  </si>
+  <si>
+    <t>UMUX_score_median</t>
+  </si>
+  <si>
+    <t>Trust_median</t>
+  </si>
+  <si>
+    <t>Acceptance_median</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_median</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_median</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_median</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_median</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_median</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_mean</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_mean</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_mean</t>
+  </si>
+  <si>
+    <t>TransProblems_score_mean</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_mean</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_mean</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_sd</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_sd</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_sd</t>
+  </si>
+  <si>
+    <t>TransProblems_score_sd</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_sd</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_sd</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_min</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_min</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_min</t>
+  </si>
+  <si>
+    <t>TransProblems_score_min</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_min</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_min</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_max</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_max</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_max</t>
+  </si>
+  <si>
+    <t>TransProblems_score_max</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_max</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_max</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_median</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_median</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>BothAllow_Observed_score_median</t>
+  </si>
+  <si>
+    <t>TransProblems_score_median</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_median</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_median</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>TC01_ER_mean</t>
+  </si>
+  <si>
+    <t>TC02_ER_mean</t>
+  </si>
+  <si>
+    <t>TC03_ER_mean</t>
+  </si>
+  <si>
+    <t>TC04_ER_mean</t>
+  </si>
+  <si>
+    <t>TC05_ER_mean</t>
+  </si>
+  <si>
+    <t>TC06_ER_mean</t>
+  </si>
+  <si>
+    <t>TC07_ER_mean</t>
+  </si>
+  <si>
+    <t>TC08_ER_mean</t>
+  </si>
+  <si>
+    <t>TC09_ER_mean</t>
+  </si>
+  <si>
+    <t>TC10_ER_mean</t>
+  </si>
+  <si>
+    <t>TC11_ER_mean</t>
+  </si>
+  <si>
+    <t>TC12_ER_mean</t>
+  </si>
+  <si>
+    <t>ER_overall_mean</t>
+  </si>
+  <si>
+    <t>TC01_ER_sd</t>
+  </si>
+  <si>
+    <t>TC02_ER_sd</t>
+  </si>
+  <si>
+    <t>TC03_ER_sd</t>
+  </si>
+  <si>
+    <t>TC04_ER_sd</t>
+  </si>
+  <si>
+    <t>TC05_ER_sd</t>
+  </si>
+  <si>
+    <t>TC06_ER_sd</t>
+  </si>
+  <si>
+    <t>TC07_ER_sd</t>
+  </si>
+  <si>
+    <t>TC08_ER_sd</t>
+  </si>
+  <si>
+    <t>TC09_ER_sd</t>
+  </si>
+  <si>
+    <t>TC10_ER_sd</t>
+  </si>
+  <si>
+    <t>TC11_ER_sd</t>
+  </si>
+  <si>
+    <t>TC12_ER_sd</t>
+  </si>
+  <si>
+    <t>ER_overall_sd</t>
+  </si>
+  <si>
+    <t>TC01_ER_min</t>
+  </si>
+  <si>
+    <t>TC02_ER_min</t>
+  </si>
+  <si>
+    <t>TC03_ER_min</t>
+  </si>
+  <si>
+    <t>TC04_ER_min</t>
+  </si>
+  <si>
+    <t>TC05_ER_min</t>
+  </si>
+  <si>
+    <t>TC06_ER_min</t>
+  </si>
+  <si>
+    <t>TC07_ER_min</t>
+  </si>
+  <si>
+    <t>TC08_ER_min</t>
+  </si>
+  <si>
+    <t>TC09_ER_min</t>
+  </si>
+  <si>
+    <t>TC10_ER_min</t>
+  </si>
+  <si>
+    <t>TC11_ER_min</t>
+  </si>
+  <si>
+    <t>TC12_ER_min</t>
+  </si>
+  <si>
+    <t>ER_overall_min</t>
+  </si>
+  <si>
+    <t>TC01_ER_max</t>
+  </si>
+  <si>
+    <t>TC02_ER_max</t>
+  </si>
+  <si>
+    <t>TC03_ER_max</t>
+  </si>
+  <si>
+    <t>TC04_ER_max</t>
+  </si>
+  <si>
+    <t>TC05_ER_max</t>
+  </si>
+  <si>
+    <t>TC06_ER_max</t>
+  </si>
+  <si>
+    <t>TC07_ER_max</t>
+  </si>
+  <si>
+    <t>TC08_ER_max</t>
+  </si>
+  <si>
+    <t>TC09_ER_max</t>
+  </si>
+  <si>
+    <t>TC10_ER_max</t>
+  </si>
+  <si>
+    <t>TC11_ER_max</t>
+  </si>
+  <si>
+    <t>TC12_ER_max</t>
+  </si>
+  <si>
+    <t>ER_overall_max</t>
+  </si>
+  <si>
+    <t>TC01_ER_median</t>
+  </si>
+  <si>
+    <t>TC02_ER_median</t>
+  </si>
+  <si>
+    <t>TC03_ER_median</t>
+  </si>
+  <si>
+    <t>TC04_ER_median</t>
+  </si>
+  <si>
+    <t>TC05_ER_median</t>
+  </si>
+  <si>
+    <t>TC06_ER_median</t>
+  </si>
+  <si>
+    <t>TC07_ER_median</t>
+  </si>
+  <si>
+    <t>TC08_ER_median</t>
+  </si>
+  <si>
+    <t>TC09_ER_median</t>
+  </si>
+  <si>
+    <t>TC10_ER_median</t>
+  </si>
+  <si>
+    <t>TC11_ER_median</t>
+  </si>
+  <si>
+    <t>TC12_ER_median</t>
+  </si>
+  <si>
+    <t>ER_overall_median</t>
+  </si>
   <si>
     <t>Exp</t>
   </si>
@@ -607,7 +2317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -619,16 +2329,40 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,37 +2390,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>571</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>572</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>573</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>574</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>575</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>576</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>577</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>578</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>579</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2">
@@ -859,160 +2593,160 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>581</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>582</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>589</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>590</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>591</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>592</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>593</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>594</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>595</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>596</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>597</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>598</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>599</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>601</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>602</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>603</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>35</v>
+        <v>605</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>36</v>
+        <v>606</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>37</v>
+        <v>607</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>38</v>
+        <v>608</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>39</v>
+        <v>609</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>40</v>
+        <v>610</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>41</v>
+        <v>611</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>42</v>
+        <v>612</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>43</v>
+        <v>613</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>44</v>
+        <v>614</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>45</v>
+        <v>615</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>46</v>
+        <v>616</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>47</v>
+        <v>617</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>48</v>
+        <v>618</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>49</v>
+        <v>619</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>50</v>
+        <v>620</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>51</v>
+        <v>621</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>52</v>
+        <v>622</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>53</v>
+        <v>623</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>54</v>
+        <v>624</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>55</v>
+        <v>625</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>56</v>
+        <v>626</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>57</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>58</v>
+        <v>628</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>59</v>
+        <v>629</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>60</v>
+        <v>630</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>61</v>
+        <v>631</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>62</v>
+        <v>632</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>63</v>
+        <v>633</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>64</v>
+        <v>634</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>65</v>
+        <v>635</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>66</v>
+        <v>636</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>67</v>
+        <v>637</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>68</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2">
@@ -1020,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>583</v>
       </c>
       <c r="C2" s="0">
         <v>81.442307692307693</v>
@@ -1178,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>584</v>
       </c>
       <c r="C3" s="0">
         <v>77.019230769230774</v>
@@ -1336,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>585</v>
       </c>
       <c r="C4" s="0">
         <v>79.090909090909093</v>
@@ -1494,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>586</v>
       </c>
       <c r="C5" s="0">
         <v>78.75</v>
@@ -1652,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>587</v>
       </c>
       <c r="C6" s="0">
         <v>86.19047619047619</v>
@@ -1810,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="C7" s="0">
         <v>81.30952380952381</v>
@@ -2018,130 +3752,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>639</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>640</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>77</v>
+        <v>647</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>78</v>
+        <v>648</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>79</v>
+        <v>649</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>651</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>652</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>653</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>84</v>
+        <v>654</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>85</v>
+        <v>655</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>86</v>
+        <v>656</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>87</v>
+        <v>657</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>88</v>
+        <v>658</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>89</v>
+        <v>659</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>90</v>
+        <v>660</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>91</v>
+        <v>661</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>92</v>
+        <v>662</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>93</v>
+        <v>663</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>94</v>
+        <v>664</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>96</v>
+        <v>666</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>97</v>
+        <v>667</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>98</v>
+        <v>668</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>99</v>
+        <v>669</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>100</v>
+        <v>670</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>101</v>
+        <v>671</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>102</v>
+        <v>672</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>103</v>
+        <v>673</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>104</v>
+        <v>674</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>105</v>
+        <v>675</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>106</v>
+        <v>676</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>107</v>
+        <v>677</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>108</v>
+        <v>678</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>109</v>
+        <v>679</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>110</v>
+        <v>680</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>111</v>
+        <v>681</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>112</v>
+        <v>682</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>113</v>
+        <v>683</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>114</v>
+        <v>684</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>115</v>
+        <v>685</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>116</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2">
@@ -2149,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>641</v>
       </c>
       <c r="C2" s="0">
         <v>11.538461538461538</v>
@@ -2277,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>72</v>
+        <v>642</v>
       </c>
       <c r="C3" s="0">
         <v>11.384615384615385</v>
@@ -2405,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>643</v>
       </c>
       <c r="C4" s="0">
         <v>11.333333333333334</v>
@@ -2533,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>74</v>
+        <v>644</v>
       </c>
       <c r="C5" s="0">
         <v>10.142857142857142</v>
@@ -2661,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>75</v>
+        <v>645</v>
       </c>
       <c r="C6" s="0">
         <v>11.380952380952381</v>
@@ -2789,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="C7" s="0">
         <v>10.428571428571429</v>
@@ -2992,205 +4726,205 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>117</v>
+        <v>687</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>688</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>125</v>
+        <v>695</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>126</v>
+        <v>696</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>127</v>
+        <v>697</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>128</v>
+        <v>698</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>129</v>
+        <v>699</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>131</v>
+        <v>701</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>132</v>
+        <v>702</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>133</v>
+        <v>703</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>134</v>
+        <v>704</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>135</v>
+        <v>705</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>136</v>
+        <v>706</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>137</v>
+        <v>707</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>138</v>
+        <v>708</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>139</v>
+        <v>709</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>140</v>
+        <v>710</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>141</v>
+        <v>711</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>142</v>
+        <v>712</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>143</v>
+        <v>713</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>144</v>
+        <v>714</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>145</v>
+        <v>715</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>146</v>
+        <v>716</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>147</v>
+        <v>717</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>148</v>
+        <v>718</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>149</v>
+        <v>719</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>150</v>
+        <v>720</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>151</v>
+        <v>721</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>152</v>
+        <v>722</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>153</v>
+        <v>723</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>154</v>
+        <v>724</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>155</v>
+        <v>725</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>156</v>
+        <v>726</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>157</v>
+        <v>727</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>158</v>
+        <v>728</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>159</v>
+        <v>729</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>160</v>
+        <v>730</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>161</v>
+        <v>731</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>162</v>
+        <v>732</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>163</v>
+        <v>733</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>164</v>
+        <v>734</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>165</v>
+        <v>735</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>166</v>
+        <v>736</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>167</v>
+        <v>737</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>168</v>
+        <v>738</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>169</v>
+        <v>739</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>170</v>
+        <v>740</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>171</v>
+        <v>741</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>172</v>
+        <v>742</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>173</v>
+        <v>743</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>174</v>
+        <v>744</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>175</v>
+        <v>745</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>176</v>
+        <v>746</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>177</v>
+        <v>747</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>178</v>
+        <v>748</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>179</v>
+        <v>749</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>181</v>
+        <v>751</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>182</v>
+        <v>752</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>183</v>
+        <v>753</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>184</v>
+        <v>754</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>185</v>
+        <v>755</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>186</v>
+        <v>756</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>187</v>
+        <v>757</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>188</v>
+        <v>758</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>189</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2">
@@ -3198,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>689</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
@@ -3401,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>120</v>
+        <v>690</v>
       </c>
       <c r="C3" s="0">
         <v>1.0384615384615385</v>
@@ -3604,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>121</v>
+        <v>691</v>
       </c>
       <c r="C4" s="0">
         <v>1.3636363636363635</v>
@@ -3807,7 +5541,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>122</v>
+        <v>692</v>
       </c>
       <c r="C5" s="0">
         <v>1.1785714285714286</v>
@@ -4010,7 +5744,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>123</v>
+        <v>693</v>
       </c>
       <c r="C6" s="0">
         <v>1</v>
@@ -4213,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>124</v>
+        <v>694</v>
       </c>
       <c r="C7" s="0">
         <v>1</v>
